--- a/data-raw/metadata_generated_by_flowwest/recaptures-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/recaptures-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D164E6-7F7A-F840-B6E9-2B167E7E7FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8555932-7BD7-C34F-8BAC-AF87993AE8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-11300" windowWidth="28800" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="-20120" windowWidth="23680" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -76,12 +76,6 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>recapture_row_id</t>
-  </si>
-  <si>
     <t>trial_id</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>flows</t>
-  </si>
-  <si>
-    <t>gate</t>
   </si>
   <si>
     <t>mark_recap_id</t>
@@ -110,6 +101,78 @@
   </si>
   <si>
     <t>dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of fish </t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of recaptured fish </t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fork length of recaptured  fish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality status of fish caught in trap </t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique identifier for mark recapture trial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">code applied for mark recapture trial </t>
+  </si>
+  <si>
+    <t>station_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station code indicating where trap was located, corresponds to one of the rbdd gates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key to release table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date of sample </t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start time of sample </t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow at time of recapture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cubic feet per seccond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinal </t>
   </si>
 </sst>
 </file>
@@ -164,12 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -179,6 +241,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,25 +631,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG16385"/>
+  <dimension ref="A1:AMG16383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="19.6640625" style="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
@@ -596,100 +664,246 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="6">
+        <v>35864</v>
+      </c>
+      <c r="M3" s="6">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
@@ -49801,27 +50015,21 @@
     <row r="16383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16383"/>
     </row>
-    <row r="16384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16384"/>
-    </row>
-    <row r="16385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16385"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1019 C1:C6" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1019 E1:E6" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1019 F1:F6" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576 H1:H6" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -49840,19 +50048,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data-raw/metadata_generated_by_flowwest/recaptures-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/recaptures-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8555932-7BD7-C34F-8BAC-AF87993AE8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A00067C-B3F0-0146-AE63-3B23BC81C23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="-20120" windowWidth="23680" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,10 +169,10 @@
     <t xml:space="preserve">Flow at time of recapture </t>
   </si>
   <si>
-    <t xml:space="preserve">cubic feet per seccond </t>
+    <t xml:space="preserve">ordinal </t>
   </si>
   <si>
-    <t xml:space="preserve">ordinal </t>
+    <t>cubicFeetPerSecond</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:AMG16383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -786,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>31</v>
